--- a/doc/2-Planning/stime.xlsx
+++ b/doc/2-Planning/stime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/andrea_zammarchi3_studio_unibo_it/Documents/Università/Magistrale/PM - Project Management/Esame/Progetto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrea/Desktop/PM/doc/2-Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="480" documentId="13_ncr:1_{E8243144-E582-42A2-B2EA-924583B295BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEF8B3E5-84AD-DC4D-951E-07E18B5D85BA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF9D08E-2811-984A-9CF1-62D66D6A7A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stime-1" sheetId="1" r:id="rId1"/>
@@ -875,8 +875,8 @@
   </sheetPr>
   <dimension ref="A2:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1496,7 +1496,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1639,7 +1639,7 @@
         <v>15</v>
       </c>
       <c r="C44" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -1782,7 +1782,7 @@
         <v>15</v>
       </c>
       <c r="C53" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="B89" s="28"/>
       <c r="C89" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B98" s="28"/>
       <c r="C98" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="B107" s="28"/>
       <c r="C107" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" s="28"/>
       <c r="E107" s="28"/>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B116" s="28"/>
       <c r="C116" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116" s="28"/>
       <c r="E116" s="28"/>
